--- a/dbcan/MucinDegTable.xlsx
+++ b/dbcan/MucinDegTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7ecf4928fe261446/Documents/GitHub/OG_MetaG/dbcan/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3607" documentId="8_{823AC7C7-7085-4180-B3B6-259E9669237A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{0B36B464-7176-46C3-8E5A-D0767D8668FC}"/>
+  <xr:revisionPtr revIDLastSave="3940" documentId="8_{823AC7C7-7085-4180-B3B6-259E9669237A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{1E74124F-AECF-4483-90E5-D42934FD2153}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E12190B5-FBFA-48B1-9D43-6098B5871443}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{E12190B5-FBFA-48B1-9D43-6098B5871443}"/>
   </bookViews>
   <sheets>
     <sheet name="Final List" sheetId="6" r:id="rId1"/>
@@ -18,7 +18,8 @@
     <sheet name="EC To Check" sheetId="2" r:id="rId3"/>
     <sheet name="Enzyme Names To Check" sheetId="4" r:id="rId4"/>
     <sheet name="Sulfatase" sheetId="1" r:id="rId5"/>
-    <sheet name="Comparison" sheetId="7" r:id="rId6"/>
+    <sheet name="CBM" sheetId="8" r:id="rId6"/>
+    <sheet name="Comparison" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2626" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2759" uniqueCount="529">
   <si>
     <t>CAZyme</t>
   </si>
@@ -1449,6 +1450,183 @@
   </si>
   <si>
     <t>Red text = C# overlap (but not CAZyme confirmed)</t>
+  </si>
+  <si>
+    <t>CBM</t>
+  </si>
+  <si>
+    <t>CBM32</t>
+  </si>
+  <si>
+    <t>Associated CAZyme</t>
+  </si>
+  <si>
+    <t>Associated CAZyme Activity</t>
+  </si>
+  <si>
+    <t>CBM51</t>
+  </si>
+  <si>
+    <t>Subfamily CBM51b. Distinct from CBM51a</t>
+  </si>
+  <si>
+    <t>Subfamily CMB51a. Distinct from CMB51b. Strict specificity for blood group A/B antigens</t>
+  </si>
+  <si>
+    <t>CBM40</t>
+  </si>
+  <si>
+    <t>Cuskin 2015</t>
+  </si>
+  <si>
+    <t>Degrading yeast a-mannans</t>
+  </si>
+  <si>
+    <t>Fig S4A</t>
+  </si>
+  <si>
+    <t>Recognizes sialic acid</t>
+  </si>
+  <si>
+    <t>CBM41</t>
+  </si>
+  <si>
+    <t>CBM47</t>
+  </si>
+  <si>
+    <t>Recheck</t>
+  </si>
+  <si>
+    <t>Recognizes mammalian glycans. Specifically blood group antigens</t>
+  </si>
+  <si>
+    <t>Recognizes mammalian glycans. Recognizes internal motifs on polysaccharides that are rich in regions of a-1,4-linked glucose, like starch and glycogen. Might be most commonly used to bacterial processing of host glycogen</t>
+  </si>
+  <si>
+    <t>GH13</t>
+  </si>
+  <si>
+    <t>Known specificities</t>
+  </si>
+  <si>
+    <t>Gal, GlcNAc, LacNAc, GlcNAca-1,4-Gal</t>
+  </si>
+  <si>
+    <t>Sialic acid</t>
+  </si>
+  <si>
+    <t>a-1,4-glucans (glycogen, starch)</t>
+  </si>
+  <si>
+    <t>Fucose, Lewis Y antigen, Lewis B antigen</t>
+  </si>
+  <si>
+    <t>a-glucanase</t>
+  </si>
+  <si>
+    <t>EC 3.2.1.51</t>
+  </si>
+  <si>
+    <t>Fushinobu 2010</t>
+  </si>
+  <si>
+    <t>Participates in HMO degradation</t>
+  </si>
+  <si>
+    <t>EC 3.2.1.23</t>
+  </si>
+  <si>
+    <t>endo-a-GalNAcase</t>
+  </si>
+  <si>
+    <t>CBM71</t>
+  </si>
+  <si>
+    <t>endo-B-N-acetylglucosaminidase</t>
+  </si>
+  <si>
+    <t>N-glycan. Might be lung-related (pneumonia)</t>
+  </si>
+  <si>
+    <t>O-glycan</t>
+  </si>
+  <si>
+    <t>Low 2020</t>
+  </si>
+  <si>
+    <t>exo-a-sialidase; sialidase</t>
+  </si>
+  <si>
+    <t>Gregg 2008; Low 2020</t>
+  </si>
+  <si>
+    <t>Mixed activities</t>
+  </si>
+  <si>
+    <t>Gal, GalNAc, a1,2-linked fucose, blood group A and B antigens</t>
+  </si>
+  <si>
+    <t>Martens 2008; Desai 2016</t>
+  </si>
+  <si>
+    <t>PF13402</t>
+  </si>
+  <si>
+    <t>Nakjang 2012</t>
+  </si>
+  <si>
+    <t>Rahfeld 2019; Low 2020</t>
+  </si>
+  <si>
+    <t>Shimada 2015; Low 2020</t>
+  </si>
+  <si>
+    <t>Sialidase, anhydrosialidase</t>
+  </si>
+  <si>
+    <t>Wada 2008; Fushinobu 2010</t>
+  </si>
+  <si>
+    <t>Wakinaka 2013</t>
+  </si>
+  <si>
+    <t>Closer to subfamily CBM51b than to CBM51a</t>
+  </si>
+  <si>
+    <t>Boraston 2007; Juge 2016; Low 2020</t>
+  </si>
+  <si>
+    <t>Moustafa 2004; Boraston 2007; Ficko-Blean 2012; Tailford 2015; Juge 2016; Corfield 2018; Low 2020</t>
+  </si>
+  <si>
+    <t>Abbott 2011; Hobbs 2018</t>
+  </si>
+  <si>
+    <t>Boraston 2006; Ficko-Blean 2012</t>
+  </si>
+  <si>
+    <t>Gut mucin?</t>
+  </si>
+  <si>
+    <t>Ficko-Blean 2006; Ficko-Blean 2009; Ficko-Blean 2012; Low 2020</t>
+  </si>
+  <si>
+    <t>Lactose, N-acetyllactosamine (B-D-galactosyl-1,4-B-D-N-acetylglucosamine</t>
+  </si>
+  <si>
+    <t>Gregg 2008; Higgins 2011; Ficko-Blean 2012; Low 2020</t>
+  </si>
+  <si>
+    <t>Singh 2014; Hobbs 2018</t>
+  </si>
+  <si>
+    <t>N-glycan. S. pneumoniae</t>
+  </si>
+  <si>
+    <t>Lammerts van Bueren 2004; Mikami 2006; Lammerts van Bueren 2007; Ficko-Blean 2012; Hobbs 2018</t>
+  </si>
+  <si>
+    <t>Fujita 2005; Caines 2008; Williw 2009; Fushinobu 2010; Hobbs 2018</t>
   </si>
 </sst>
 </file>
@@ -1702,7 +1880,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1798,6 +1976,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2125,8 +2305,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF9FA654-EA9E-4049-A36C-2280FFCBA81F}">
   <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="A61" sqref="A61:XFD61"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3194,9 +3374,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FD06F06-4939-4B80-80C3-73B9167FF33E}">
   <dimension ref="A1:N151"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -11246,11 +11424,513 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF3EB00C-3366-4A7B-B49C-AC9EB5EA56B4}">
+  <dimension ref="A1:M70"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="17.5546875" customWidth="1"/>
+    <col min="3" max="3" width="18.21875" customWidth="1"/>
+    <col min="4" max="4" width="25.5546875" customWidth="1"/>
+    <col min="10" max="10" width="8.88671875" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
+        <v>470</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>488</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>472</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>473</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>484</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>471</v>
+      </c>
+      <c r="B2" t="s">
+        <v>489</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="J2" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="L2" t="s">
+        <v>509</v>
+      </c>
+      <c r="M2" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C3" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="H3" s="9"/>
+      <c r="J3" s="21" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="J4" s="15" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
+        <v>494</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" t="s">
+        <v>495</v>
+      </c>
+      <c r="J5" s="15" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>138</v>
+      </c>
+      <c r="D6" t="s">
+        <v>506</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" t="s">
+        <v>511</v>
+      </c>
+      <c r="J6" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" t="s">
+        <v>504</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" t="s">
+        <v>517</v>
+      </c>
+      <c r="J7" s="14" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
+        <v>140</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" t="s">
+        <v>511</v>
+      </c>
+      <c r="J8" s="14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>171</v>
+      </c>
+      <c r="D9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" t="s">
+        <v>479</v>
+      </c>
+      <c r="G9" t="s">
+        <v>478</v>
+      </c>
+      <c r="J9" s="25" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="G10" t="s">
+        <v>522</v>
+      </c>
+      <c r="J10" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" t="s">
+        <v>500</v>
+      </c>
+      <c r="E11" t="s">
+        <v>501</v>
+      </c>
+      <c r="F11" s="72" t="s">
+        <v>521</v>
+      </c>
+      <c r="G11" t="s">
+        <v>519</v>
+      </c>
+      <c r="J11" s="14" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" t="s">
+        <v>512</v>
+      </c>
+      <c r="J12" s="14" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C13" t="s">
+        <v>288</v>
+      </c>
+      <c r="D13" t="s">
+        <v>288</v>
+      </c>
+      <c r="E13" t="s">
+        <v>480</v>
+      </c>
+      <c r="G13" t="s">
+        <v>508</v>
+      </c>
+      <c r="J13" s="15" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C14" t="s">
+        <v>64</v>
+      </c>
+      <c r="D14" t="s">
+        <v>498</v>
+      </c>
+      <c r="E14" t="s">
+        <v>502</v>
+      </c>
+      <c r="F14" s="72" t="s">
+        <v>521</v>
+      </c>
+      <c r="G14" t="s">
+        <v>528</v>
+      </c>
+      <c r="J14" s="14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>477</v>
+      </c>
+      <c r="B15" t="s">
+        <v>490</v>
+      </c>
+      <c r="C15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" t="s">
+        <v>513</v>
+      </c>
+      <c r="E15" t="s">
+        <v>481</v>
+      </c>
+      <c r="G15" t="s">
+        <v>518</v>
+      </c>
+      <c r="J15" s="25" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="J16" s="14" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="F17" s="4"/>
+      <c r="G17" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="J17" s="14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>483</v>
+      </c>
+      <c r="B18" t="s">
+        <v>492</v>
+      </c>
+      <c r="C18" t="s">
+        <v>145</v>
+      </c>
+      <c r="D18" s="61" t="s">
+        <v>220</v>
+      </c>
+      <c r="E18" t="s">
+        <v>485</v>
+      </c>
+      <c r="F18" s="72" t="s">
+        <v>521</v>
+      </c>
+      <c r="G18" t="s">
+        <v>520</v>
+      </c>
+      <c r="J18" s="14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>474</v>
+      </c>
+      <c r="B19" t="s">
+        <v>507</v>
+      </c>
+      <c r="C19" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="G19" t="s">
+        <v>503</v>
+      </c>
+      <c r="J19" s="14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C20" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20" t="s">
+        <v>475</v>
+      </c>
+      <c r="G20" t="s">
+        <v>505</v>
+      </c>
+      <c r="J20" s="15" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C21" t="s">
+        <v>145</v>
+      </c>
+      <c r="D21" s="61" t="s">
+        <v>220</v>
+      </c>
+      <c r="E21" t="s">
+        <v>476</v>
+      </c>
+      <c r="G21" t="s">
+        <v>524</v>
+      </c>
+      <c r="J21" s="14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C22" t="s">
+        <v>147</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22" t="s">
+        <v>516</v>
+      </c>
+      <c r="G22" t="s">
+        <v>515</v>
+      </c>
+      <c r="J22" s="25" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>499</v>
+      </c>
+      <c r="B23" t="s">
+        <v>523</v>
+      </c>
+      <c r="C23" t="s">
+        <v>60</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E23" t="s">
+        <v>526</v>
+      </c>
+      <c r="F23" s="72" t="s">
+        <v>521</v>
+      </c>
+      <c r="G23" t="s">
+        <v>525</v>
+      </c>
+      <c r="J23" s="15" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J24" s="14" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J25" s="71" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J26" s="25" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J27" s="14" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J28" s="15" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J29" s="15" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J30" s="14" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J31" s="21" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J32" s="25" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="69" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J69" s="21"/>
+    </row>
+    <row r="70" spans="10:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J70" s="36"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{455AA5D4-833D-48DC-9D2D-9F3EA6B24CFB}">
   <dimension ref="A1:M65"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11451,7 +12131,7 @@
       <c r="M10" s="14"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="71" t="s">
+      <c r="A11" s="73" t="s">
         <v>137</v>
       </c>
       <c r="B11" s="47" t="s">
@@ -11472,7 +12152,7 @@
       <c r="M11" s="14"/>
     </row>
     <row r="12" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="72"/>
+      <c r="A12" s="74"/>
       <c r="B12" s="48" t="s">
         <v>3</v>
       </c>
@@ -11524,7 +12204,7 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="71" t="s">
+      <c r="A14" s="73" t="s">
         <v>138</v>
       </c>
       <c r="B14" s="47" t="s">
@@ -11553,7 +12233,7 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="73"/>
+      <c r="A15" s="75"/>
       <c r="B15" s="49" t="s">
         <v>170</v>
       </c>
@@ -11580,7 +12260,7 @@
       </c>
     </row>
     <row r="16" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="72"/>
+      <c r="A16" s="74"/>
       <c r="B16" s="48" t="s">
         <v>3</v>
       </c>
@@ -11659,7 +12339,7 @@
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" s="71" t="s">
+      <c r="A19" s="73" t="s">
         <v>140</v>
       </c>
       <c r="B19" s="47" t="s">
@@ -11684,7 +12364,7 @@
       </c>
     </row>
     <row r="20" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="72"/>
+      <c r="A20" s="74"/>
       <c r="B20" s="48" t="s">
         <v>3</v>
       </c>
@@ -11855,7 +12535,7 @@
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A27" s="71" t="s">
+      <c r="A27" s="73" t="s">
         <v>57</v>
       </c>
       <c r="B27" s="47" t="s">
@@ -11882,7 +12562,7 @@
       </c>
     </row>
     <row r="28" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="72"/>
+      <c r="A28" s="74"/>
       <c r="B28" s="48" t="s">
         <v>114</v>
       </c>
@@ -11934,7 +12614,7 @@
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A30" s="71" t="s">
+      <c r="A30" s="73" t="s">
         <v>157</v>
       </c>
       <c r="B30" s="47" t="s">
@@ -11958,7 +12638,7 @@
       </c>
     </row>
     <row r="31" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="72"/>
+      <c r="A31" s="74"/>
       <c r="B31" s="48" t="s">
         <v>15</v>
       </c>

--- a/dbcan/MucinDegTable.xlsx
+++ b/dbcan/MucinDegTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7ecf4928fe261446/Documents/GitHub/OG_MetaG/dbcan/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3940" documentId="8_{823AC7C7-7085-4180-B3B6-259E9669237A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{1E74124F-AECF-4483-90E5-D42934FD2153}"/>
+  <xr:revisionPtr revIDLastSave="3952" documentId="8_{823AC7C7-7085-4180-B3B6-259E9669237A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{C9BA26C0-5C03-40AF-A82C-68B166F3E8BE}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{E12190B5-FBFA-48B1-9D43-6098B5871443}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{E12190B5-FBFA-48B1-9D43-6098B5871443}"/>
   </bookViews>
   <sheets>
     <sheet name="Final List" sheetId="6" r:id="rId1"/>
@@ -11427,8 +11427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF3EB00C-3366-4A7B-B49C-AC9EB5EA56B4}">
   <dimension ref="A1:M70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="G49" sqref="A26:G49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
